--- a/biology/Botanique/Ronabea_latifolia/Ronabea_latifolia.xlsx
+++ b/biology/Botanique/Ronabea_latifolia/Ronabea_latifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ronabea latifolia est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Ronabea.
 </t>
@@ -511,17 +523,19 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ronabea latifolia est une herbacée suffrutescente, un arbuste ou un petit arbre, atteignant jusqu'à 6 m de haut, strigileux à glabrescent.
 Les feuilles mesurent 8,5-17 × 2,5-9,5 cm, avec des pétioles longs de 7-13 mm, et des stipules de 1-7 mm de long.
 à l'aisselle des feuilles naissent 1-4 pédoncules longs de 2-20 mm.
 Le limbe du calice est long de 1-2 mm. 
 La corolle comporte un tube long de 3-4 mm et des lobes de 1,5-3 mm.
-Le fruit mesure 8-10 × 5-8 mm[4],[5].
+Le fruit mesure 8-10 × 5-8 mm,.
 En 1953, Lemée en propose la description suivante de Ronabea latifolia :
 « R. latifolia Aubl. (R. erecta Aubl., Psychotria axillaris W.). Petit arbre subglabre ; feuilles de 0,12-0,15 sur 0,05-0,08, oblongues ou subobovales subacuminées, rétrécies à la base, subcoriaces, avec 7 paires de nervures en général, stipules un peu pubescentes ; pédoncules très pubescents-ferrugineux et aussi les bractées, fleurs fasciculées, calice du  genre, à peine pubescent; corolle à tube de 3-4 mm. et lobes de 2-3, glabre en dehors, ovaire glabre, style à lobes filiformes ; drupe de 8 mm. sur 5-6, ovoïde verte glabre, grames glabres. - (Aublet). »
-— Albert Lemée, 1953.[6]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ronabea latifolia est présent de l'Amérique centrale au Brésil, en passant par la Colombie, le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ronabea latifolia est présent de l'Amérique centrale au Brésil, en passant par la Colombie, le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ronabea latifolia pousse dans les forêts de plaine et de montagne, à 50-1 500 m d'altitude[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ronabea latifolia pousse dans les forêts de plaine et de montagne, à 50-1 500 m d'altitude.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a premièrement décrit deux fois Ronabea latifolia, sous ce nom et celui de Ronabea erecta, et en a proposé les protologues suivants[7] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a premièrement décrit deux fois Ronabea latifolia, sous ce nom et celui de Ronabea erecta, et en a proposé les protologues suivants : 
 « 1. RONABEA (latifolia) caulibus flexuoſis, foliis ovatis, acutis, viridibus, e cæruleo variegatis; fructu nigricante, ſtriato. (Tabula 59.).
 Frutex plures è radice caules emittens, ſimplices, nodoſos, tortuoſos, bi aut tri-pedales. Folia oppoſita, ovata, acuta, integerrima, è cæruleo virentia, brevi petiolata. Stipula lata, acuta, utrinquè intrà baſim petiolorum. Flores duo, tres, quatuor, quinque aut ſex, ſub-ſeſſiles, ad utramque axillam foliorum. Corolla alba. Bacca nigricans. 
 LA RONABE à large feuille. (PLANCHE 59.)
